--- a/AxB/ProcessedData/TripSummaries.xlsx
+++ b/AxB/ProcessedData/TripSummaries.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kittelsonassociates-my.sharepoint.com/personal/abibeka_kittelson_com/Documents/Documents/Github/WMATA_AVL/AxB/ProcessedData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_385DD3D81CB41CD956161D35EBF885C9223C53FE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFF733DD-116A-42E7-8A3A-D0D636BA8AE4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06431190501" sheetId="1" r:id="rId1"/>
     <sheet name="06464190501" sheetId="2" r:id="rId2"/>
     <sheet name="06468190501" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -264,8 +270,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +334,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,9 +420,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,6 +472,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,14 +665,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -710,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.948325</v>
+        <v>38.948324999999997</v>
       </c>
       <c r="N2">
-        <v>-77.03214699999999</v>
+        <v>-77.032146999999995</v>
       </c>
       <c r="O2">
-        <v>38.994065</v>
+        <v>38.994064999999999</v>
       </c>
       <c r="P2">
-        <v>-77.03050500000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>-77.030505000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -760,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>38.993305</v>
+        <v>38.993304999999999</v>
       </c>
       <c r="N3">
-        <v>-77.02993199999999</v>
+        <v>-77.029931999999988</v>
       </c>
       <c r="O3">
-        <v>38.892433</v>
+        <v>38.892432999999997</v>
       </c>
       <c r="P3">
-        <v>-77.023917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>-77.023916999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -810,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>38.892433</v>
+        <v>38.892432999999997</v>
       </c>
       <c r="N4">
-        <v>-77.023917</v>
+        <v>-77.023916999999997</v>
       </c>
       <c r="O4">
         <v>38.993288</v>
       </c>
       <c r="P4">
-        <v>-77.029917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>-77.029916999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -848,10 +918,10 @@
         <v>7.61</v>
       </c>
       <c r="I5">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="J5">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -863,16 +933,16 @@
         <v>38.993288</v>
       </c>
       <c r="N5">
-        <v>-77.029917</v>
+        <v>-77.029916999999998</v>
       </c>
       <c r="O5">
-        <v>38.892677</v>
+        <v>38.892676999999999</v>
       </c>
       <c r="P5">
-        <v>-77.023848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-77.023848000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -910,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>38.892677</v>
+        <v>38.892676999999999</v>
       </c>
       <c r="N6">
-        <v>-77.023848</v>
+        <v>-77.023848000000001</v>
       </c>
       <c r="O6">
-        <v>38.993218</v>
+        <v>38.993217999999999</v>
       </c>
       <c r="P6">
-        <v>-77.02999200000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>-77.029992000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -960,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>38.993218</v>
+        <v>38.993217999999999</v>
       </c>
       <c r="N7">
-        <v>-77.02999200000001</v>
+        <v>-77.029992000000007</v>
       </c>
       <c r="O7">
-        <v>38.892752</v>
+        <v>38.892752000000002</v>
       </c>
       <c r="P7">
-        <v>-77.023877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>-77.023876999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1010,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>38.892752</v>
+        <v>38.892752000000002</v>
       </c>
       <c r="N8">
-        <v>-77.023877</v>
+        <v>-77.023876999999999</v>
       </c>
       <c r="O8">
-        <v>38.99327</v>
+        <v>38.993270000000003</v>
       </c>
       <c r="P8">
-        <v>-77.02957499999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>-77.029574999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1060,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>38.99328</v>
+        <v>38.993279999999999</v>
       </c>
       <c r="N9">
-        <v>-77.02990699999999</v>
+        <v>-77.029906999999994</v>
       </c>
       <c r="O9">
-        <v>38.89291</v>
+        <v>38.892910000000001</v>
       </c>
       <c r="P9">
         <v>-77.02385799999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1098,10 +1168,10 @@
         <v>7.57</v>
       </c>
       <c r="I10">
-        <v>9.720000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="J10">
-        <v>9.720000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1110,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.89291</v>
+        <v>38.892910000000001</v>
       </c>
       <c r="N10">
         <v>-77.02385799999999</v>
       </c>
       <c r="O10">
-        <v>38.993225</v>
+        <v>38.993225000000002</v>
       </c>
       <c r="P10">
-        <v>-77.02958700000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>-77.029587000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1160,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>38.993932</v>
+        <v>38.993932000000001</v>
       </c>
       <c r="N11">
-        <v>-77.03057700000001</v>
+        <v>-77.030577000000008</v>
       </c>
       <c r="O11">
         <v>38.893138</v>
       </c>
       <c r="P11">
-        <v>-77.023877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>-77.023876999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1198,10 +1268,10 @@
         <v>7.55</v>
       </c>
       <c r="I12">
-        <v>8.029999999999999</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="J12">
-        <v>8.029999999999999</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1213,16 +1283,16 @@
         <v>38.893138</v>
       </c>
       <c r="N12">
-        <v>-77.023877</v>
+        <v>-77.023876999999999</v>
       </c>
       <c r="O12">
-        <v>38.993237</v>
+        <v>38.993237000000001</v>
       </c>
       <c r="P12">
-        <v>-77.02959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>-77.029589999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1251,7 +1321,7 @@
         <v>7.61</v>
       </c>
       <c r="J13">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1260,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>38.993237</v>
+        <v>38.993237000000001</v>
       </c>
       <c r="N13">
-        <v>-77.02959</v>
+        <v>-77.029589999999999</v>
       </c>
       <c r="O13">
-        <v>38.947345</v>
+        <v>38.947344999999999</v>
       </c>
       <c r="P13">
-        <v>-77.031137</v>
+        <v>-77.031137000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1278,14 +1348,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1373,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.955218</v>
+        <v>38.955218000000002</v>
       </c>
       <c r="N2">
-        <v>-77.03341</v>
+        <v>-77.033410000000003</v>
       </c>
       <c r="O2">
-        <v>38.901408</v>
+        <v>38.901408000000004</v>
       </c>
       <c r="P2">
-        <v>-77.03104499999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>-77.031044999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1408,7 +1498,7 @@
         <v>1787</v>
       </c>
       <c r="H3">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I3">
         <v>8.94</v>
@@ -1423,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>38.901982</v>
+        <v>38.901981999999997</v>
       </c>
       <c r="N3">
-        <v>-77.03653800000001</v>
+        <v>-77.036538000000007</v>
       </c>
       <c r="O3">
-        <v>38.96288</v>
+        <v>38.962879999999998</v>
       </c>
       <c r="P3">
         <v>-77.03649200000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1461,10 +1551,10 @@
         <v>6.88</v>
       </c>
       <c r="I4">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="J4">
-        <v>8.609999999999999</v>
+        <v>8.61</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1473,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>38.96288</v>
+        <v>38.962879999999998</v>
       </c>
       <c r="N4">
         <v>-77.03649200000001</v>
       </c>
       <c r="O4">
-        <v>38.930027</v>
+        <v>38.930027000000003</v>
       </c>
       <c r="P4">
         <v>-77.032432</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1508,7 +1598,7 @@
         <v>280</v>
       </c>
       <c r="H5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I5">
         <v>14.65</v>
@@ -1523,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>38.930037</v>
+        <v>38.930036999999999</v>
       </c>
       <c r="N5">
-        <v>-77.03244699999999</v>
+        <v>-77.032446999999991</v>
       </c>
       <c r="O5">
-        <v>38.94615</v>
+        <v>38.946150000000003</v>
       </c>
       <c r="P5">
-        <v>-77.032557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-77.032556999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1573,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>38.993222</v>
+        <v>38.993222000000003</v>
       </c>
       <c r="N6">
-        <v>-77.02994</v>
+        <v>-77.029939999999996</v>
       </c>
       <c r="O6">
-        <v>38.993222</v>
+        <v>38.993222000000003</v>
       </c>
       <c r="P6">
-        <v>-77.02994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>-77.029939999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1623,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>38.993222</v>
+        <v>38.993222000000003</v>
       </c>
       <c r="N7">
-        <v>-77.02994</v>
+        <v>-77.029939999999996</v>
       </c>
       <c r="O7">
-        <v>38.893193</v>
+        <v>38.893192999999997</v>
       </c>
       <c r="P7">
-        <v>-77.023905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>-77.023904999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1673,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>38.893493</v>
+        <v>38.893492999999999</v>
       </c>
       <c r="N8">
-        <v>-77.023843</v>
+        <v>-77.023842999999999</v>
       </c>
       <c r="O8">
-        <v>38.993265</v>
+        <v>38.993265000000001</v>
       </c>
       <c r="P8">
-        <v>-77.029653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>-77.029652999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1723,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>38.993442</v>
+        <v>38.993442000000002</v>
       </c>
       <c r="N9">
-        <v>-77.02957499999999</v>
+        <v>-77.029574999999994</v>
       </c>
       <c r="O9">
         <v>38.892865</v>
       </c>
       <c r="P9">
-        <v>-77.02392500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-77.023925000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1773,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.892977</v>
+        <v>38.892977000000002</v>
       </c>
       <c r="N10">
-        <v>-77.023905</v>
+        <v>-77.023904999999999</v>
       </c>
       <c r="O10">
         <v>38.993285</v>
       </c>
       <c r="P10">
-        <v>-77.02996999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>-77.029969999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1826,16 +1916,16 @@
         <v>38.993285</v>
       </c>
       <c r="N11">
-        <v>-77.02996999999999</v>
+        <v>-77.029969999999992</v>
       </c>
       <c r="O11">
-        <v>38.893177</v>
+        <v>38.893177000000001</v>
       </c>
       <c r="P11">
-        <v>-77.02394200000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>-77.023942000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1858,7 +1948,7 @@
         <v>1468</v>
       </c>
       <c r="H12">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I12">
         <v>1.67</v>
@@ -1876,16 +1966,16 @@
         <v>38.893307</v>
       </c>
       <c r="N12">
-        <v>-77.02393499999999</v>
+        <v>-77.023934999999994</v>
       </c>
       <c r="O12">
-        <v>38.893925</v>
+        <v>38.893925000000003</v>
       </c>
       <c r="P12">
-        <v>-77.026032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>-77.026032000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1911,10 +2001,10 @@
         <v>8.19</v>
       </c>
       <c r="I13">
-        <v>9.539999999999999</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="J13">
-        <v>9.539999999999999</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1923,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>38.893925</v>
+        <v>38.893925000000003</v>
       </c>
       <c r="N13">
-        <v>-77.026032</v>
+        <v>-77.026032000000001</v>
       </c>
       <c r="O13">
-        <v>38.993187</v>
+        <v>38.993186999999999</v>
       </c>
       <c r="P13">
-        <v>-77.029647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-77.029646999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1973,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>38.993253</v>
+        <v>38.993253000000003</v>
       </c>
       <c r="N14">
         <v>-77.029595</v>
@@ -1991,14 +2081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2086,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.97659</v>
+        <v>38.976590000000002</v>
       </c>
       <c r="N2">
-        <v>-77.01689</v>
+        <v>-77.016890000000004</v>
       </c>
       <c r="O2">
-        <v>38.97606</v>
+        <v>38.976059999999997</v>
       </c>
       <c r="P2">
-        <v>-77.017042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>-77.017042000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2136,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>38.97606</v>
+        <v>38.976059999999997</v>
       </c>
       <c r="N3">
-        <v>-77.017042</v>
+        <v>-77.017042000000004</v>
       </c>
       <c r="O3">
-        <v>38.893495</v>
+        <v>38.893495000000001</v>
       </c>
       <c r="P3">
-        <v>-77.026053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>-77.026053000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2186,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>38.89347</v>
+        <v>38.893470000000001</v>
       </c>
       <c r="N4">
-        <v>-77.026055</v>
+        <v>-77.026054999999999</v>
       </c>
       <c r="O4">
-        <v>38.975517</v>
+        <v>38.975517000000004</v>
       </c>
       <c r="P4">
-        <v>-77.017145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>-77.017144999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2236,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>38.975347</v>
+        <v>38.975346999999999</v>
       </c>
       <c r="N5">
-        <v>-77.017088</v>
+        <v>-77.017088000000001</v>
       </c>
       <c r="O5">
-        <v>38.947842</v>
+        <v>38.947842000000001</v>
       </c>
       <c r="P5">
-        <v>-77.03231</v>
+        <v>-77.032309999999995</v>
       </c>
     </row>
   </sheetData>
